--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-task</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-task</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:29:51+00:00</t>
+    <t>2023-04-11T09:33:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1418,7 +1418,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/fhir/ig/ror/CodeSystem/input-task-ror-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/input-task-ror-codesystem"/&gt;
     &lt;code value="ruleErrorId"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1450,7 +1450,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/fhir/ig/ror/CodeSystem/input-task-ror-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/input-task-ror-codesystem"/&gt;
     &lt;code value="errorValue"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1482,7 +1482,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/fhir/ig/ror/CodeSystem/input-task-ror-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/input-task-ror-codesystem"/&gt;
     &lt;code value="proposedValue"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1514,7 +1514,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/fhir/ig/ror/CodeSystem/input-task-ror-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/input-task-ror-codesystem"/&gt;
     &lt;code value="pathElementError"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1550,7 +1550,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/fhir/ig/ror/CodeSystem/input-task-ror-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/input-task-ror-codesystem"/&gt;
     &lt;code value="systemRequester"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1582,7 +1582,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/fhir/ig/ror/CodeSystem/input-task-ror-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/input-task-ror-codesystem"/&gt;
     &lt;code value="identifierRequester"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1665,7 +1665,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/fhir/ig/ror/CodeSystem/output-task-ror-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/output-task-ror-codesystem"/&gt;
     &lt;code value="newValue"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1697,7 +1697,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/fhir/ig/ror/CodeSystem/output-task-ror-codesystem"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/output-task-ror-codesystem"/&gt;
     &lt;code value="identifierAnalyst"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:07+00:00</t>
+    <t>2023-04-11T13:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T13:02:58+00:00</t>
+    <t>2023-04-12T12:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T12:26:01+00:00</t>
+    <t>2023-04-12T14:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:42:58+00:00</t>
+    <t>2023-04-12T15:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="531">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:04:36+00:00</t>
+    <t>2023-04-12T15:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -752,10 +752,7 @@
     <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
   </si>
   <si>
-    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-code</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J241-ThematiqueAnomalie-ROR/FHIR/JDV-J241-ThematiqueAnomalie-ROR</t>
   </si>
   <si>
     <t>Request.code, Event.code</t>
@@ -1120,7 +1117,7 @@
     <t>This should only be included if there is no focus or if it differs from the reason indicated on the focus.</t>
   </si>
   <si>
-    <t>Indicates why the task is needed.  E.g. Suspended because patient admitted to hospital.</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J242-ActionAnomalie-ROR/FHIR/JDV-J242-ActionAnomalie-ROR</t>
   </si>
   <si>
     <t>Event.location</t>
@@ -1648,7 +1645,7 @@
     <t>newValue</t>
   </si>
   <si>
-    <t>Nouvelle valeur renseignée</t>
+    <t>Valeur corrigée</t>
   </si>
   <si>
     <t>Task.output:newValue.id</t>
@@ -2047,7 +2044,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="101.95703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="43.2734375" customWidth="true" bestFit="true"/>
@@ -2310,7 +2307,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>83</v>
@@ -2424,7 +2421,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>83</v>
@@ -3222,7 +3219,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>83</v>
@@ -4538,13 +4535,11 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -4577,13 +4572,13 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>206</v>
@@ -4591,10 +4586,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4617,13 +4612,13 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>191</v>
@@ -4676,7 +4671,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4694,7 +4689,7 @@
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4705,10 +4700,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4734,16 +4729,16 @@
         <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4792,7 +4787,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4810,10 +4805,10 @@
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4821,14 +4816,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4850,16 +4845,16 @@
         <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>170</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4908,7 +4903,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4923,13 +4918,13 @@
         <v>171</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -4937,10 +4932,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4963,19 +4958,19 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>170</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -5024,7 +5019,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -5039,13 +5034,13 @@
         <v>171</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -5053,10 +5048,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5079,16 +5074,16 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5138,7 +5133,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5153,24 +5148,24 @@
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5193,13 +5188,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5250,7 +5245,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5279,10 +5274,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5311,7 +5306,7 @@
         <v>132</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>134</v>
@@ -5364,7 +5359,7 @@
         <v>137</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5393,10 +5388,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5419,16 +5414,16 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5478,16 +5473,16 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI30" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>96</v>
@@ -5496,21 +5491,21 @@
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5533,69 +5528,69 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="R31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
@@ -5603,7 +5598,7 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>96</v>
@@ -5612,25 +5607,25 @@
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5649,17 +5644,17 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5708,7 +5703,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5717,19 +5712,19 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5737,14 +5732,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5763,17 +5758,17 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5822,7 +5817,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5831,7 +5826,7 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>96</v>
@@ -5840,7 +5835,7 @@
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5851,10 +5846,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5877,19 +5872,19 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>170</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5938,7 +5933,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5953,13 +5948,13 @@
         <v>171</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5967,10 +5962,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5996,16 +5991,16 @@
         <v>199</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>210</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -6033,11 +6028,11 @@
         <v>110</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
       </c>
@@ -6054,7 +6049,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -6069,13 +6064,13 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>206</v>
@@ -6083,14 +6078,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6109,19 +6104,19 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -6170,7 +6165,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -6185,13 +6180,13 @@
         <v>171</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -6199,10 +6194,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6225,19 +6220,19 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>170</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -6286,7 +6281,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6301,13 +6296,13 @@
         <v>171</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -6315,10 +6310,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6344,13 +6339,13 @@
         <v>199</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6376,13 +6371,11 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -6400,7 +6393,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6415,24 +6408,24 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6458,13 +6451,13 @@
         <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6514,7 +6507,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6529,13 +6522,13 @@
         <v>171</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6543,10 +6536,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6569,13 +6562,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>170</v>
@@ -6628,7 +6621,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6643,24 +6636,24 @@
         <v>171</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6683,16 +6676,16 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6742,7 +6735,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6757,10 +6750,10 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6771,14 +6764,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6797,16 +6790,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6856,7 +6849,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6871,10 +6864,10 @@
         <v>171</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6885,10 +6878,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6911,17 +6904,17 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6970,7 +6963,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6988,7 +6981,7 @@
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6999,10 +6992,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7025,13 +7018,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7082,7 +7075,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7111,10 +7104,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7143,7 +7136,7 @@
         <v>132</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>134</v>
@@ -7196,7 +7189,7 @@
         <v>137</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7225,14 +7218,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7254,10 +7247,10 @@
         <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>134</v>
@@ -7312,7 +7305,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7341,10 +7334,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7367,19 +7360,19 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -7428,7 +7421,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7446,7 +7439,7 @@
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
@@ -7457,10 +7450,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7483,19 +7476,19 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7544,7 +7537,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7556,27 +7549,27 @@
         <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7599,13 +7592,13 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>170</v>
@@ -7658,7 +7651,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7676,7 +7669,7 @@
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7687,14 +7680,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7713,17 +7706,17 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7760,10 +7753,10 @@
         <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AC50" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>74</v>
@@ -7772,7 +7765,7 @@
         <v>137</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7790,7 +7783,7 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7801,10 +7794,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7827,13 +7820,13 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7884,7 +7877,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7913,10 +7906,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7945,7 +7938,7 @@
         <v>132</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>134</v>
@@ -7998,7 +7991,7 @@
         <v>137</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8027,14 +8020,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8056,10 +8049,10 @@
         <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>134</v>
@@ -8114,7 +8107,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8143,14 +8136,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8172,16 +8165,16 @@
         <v>199</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -8209,7 +8202,7 @@
         <v>203</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -8230,7 +8223,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
@@ -8248,7 +8241,7 @@
         <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -8259,10 +8252,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8285,13 +8278,13 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8342,7 +8335,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>83</v>
@@ -8360,7 +8353,7 @@
         <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -8371,16 +8364,16 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="D56" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8399,17 +8392,17 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8458,7 +8451,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8476,7 +8469,7 @@
         <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>74</v>
@@ -8487,10 +8480,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8513,13 +8506,13 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8570,7 +8563,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8599,10 +8592,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8631,7 +8624,7 @@
         <v>132</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>134</v>
@@ -8684,7 +8677,7 @@
         <v>137</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8713,14 +8706,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8742,10 +8735,10 @@
         <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>134</v>
@@ -8800,7 +8793,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8829,14 +8822,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8858,16 +8851,16 @@
         <v>199</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8877,7 +8870,7 @@
         <v>74</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>74</v>
@@ -8895,7 +8888,7 @@
         <v>203</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>74</v>
@@ -8916,7 +8909,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>83</v>
@@ -8934,7 +8927,7 @@
         <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8945,10 +8938,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8971,13 +8964,13 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9028,7 +9021,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -9046,7 +9039,7 @@
         <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -9057,16 +9050,16 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="D62" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9085,17 +9078,17 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -9144,7 +9137,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9162,7 +9155,7 @@
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -9173,10 +9166,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9199,13 +9192,13 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9256,7 +9249,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9285,10 +9278,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9317,7 +9310,7 @@
         <v>132</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>134</v>
@@ -9370,7 +9363,7 @@
         <v>137</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9399,14 +9392,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9428,10 +9421,10 @@
         <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>134</v>
@@ -9486,7 +9479,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9515,14 +9508,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9544,16 +9537,16 @@
         <v>199</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9563,7 +9556,7 @@
         <v>74</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>74</v>
@@ -9581,7 +9574,7 @@
         <v>203</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>74</v>
@@ -9602,7 +9595,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>83</v>
@@ -9620,7 +9613,7 @@
         <v>74</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>74</v>
@@ -9631,10 +9624,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9657,13 +9650,13 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9714,7 +9707,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>83</v>
@@ -9732,7 +9725,7 @@
         <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9743,16 +9736,16 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="D68" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="D68" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9771,17 +9764,17 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9830,7 +9823,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9848,7 +9841,7 @@
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9859,10 +9852,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9885,13 +9878,13 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9942,7 +9935,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9971,10 +9964,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10003,7 +9996,7 @@
         <v>132</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>134</v>
@@ -10056,7 +10049,7 @@
         <v>137</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -10085,14 +10078,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10114,10 +10107,10 @@
         <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>134</v>
@@ -10172,7 +10165,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -10201,14 +10194,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10230,16 +10223,16 @@
         <v>199</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -10249,7 +10242,7 @@
         <v>74</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>74</v>
@@ -10267,7 +10260,7 @@
         <v>203</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>74</v>
@@ -10288,7 +10281,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>83</v>
@@ -10306,7 +10299,7 @@
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -10317,10 +10310,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10343,13 +10336,13 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10400,7 +10393,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>83</v>
@@ -10418,7 +10411,7 @@
         <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -10429,16 +10422,16 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="D74" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10457,17 +10450,17 @@
         <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
@@ -10516,7 +10509,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10534,7 +10527,7 @@
         <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -10545,10 +10538,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10571,13 +10564,13 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10628,7 +10621,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10657,10 +10650,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10689,7 +10682,7 @@
         <v>132</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>134</v>
@@ -10742,7 +10735,7 @@
         <v>137</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10771,14 +10764,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10800,10 +10793,10 @@
         <v>131</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>134</v>
@@ -10858,7 +10851,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10887,14 +10880,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10916,16 +10909,16 @@
         <v>199</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10935,7 +10928,7 @@
         <v>74</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>74</v>
@@ -10953,7 +10946,7 @@
         <v>203</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>74</v>
@@ -10974,7 +10967,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>83</v>
@@ -10992,7 +10985,7 @@
         <v>74</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -11003,10 +10996,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11029,13 +11022,13 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11086,7 +11079,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>83</v>
@@ -11104,7 +11097,7 @@
         <v>74</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>74</v>
@@ -11115,16 +11108,16 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="D80" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="D80" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11143,17 +11136,17 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -11202,7 +11195,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -11220,7 +11213,7 @@
         <v>74</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>74</v>
@@ -11231,10 +11224,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11257,13 +11250,13 @@
         <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11314,7 +11307,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -11343,10 +11336,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11375,7 +11368,7 @@
         <v>132</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>134</v>
@@ -11428,7 +11421,7 @@
         <v>137</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11457,14 +11450,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11486,10 +11479,10 @@
         <v>131</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>134</v>
@@ -11544,7 +11537,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11573,14 +11566,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11602,16 +11595,16 @@
         <v>199</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>74</v>
@@ -11621,7 +11614,7 @@
         <v>74</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>74</v>
@@ -11639,7 +11632,7 @@
         <v>203</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>74</v>
@@ -11660,7 +11653,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -11678,7 +11671,7 @@
         <v>74</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>74</v>
@@ -11689,10 +11682,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11715,13 +11708,13 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11772,7 +11765,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>83</v>
@@ -11790,7 +11783,7 @@
         <v>74</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>74</v>
@@ -11801,16 +11794,16 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="D86" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="D86" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11829,17 +11822,17 @@
         <v>74</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>74</v>
@@ -11888,7 +11881,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11906,7 +11899,7 @@
         <v>74</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>74</v>
@@ -11917,10 +11910,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11943,13 +11936,13 @@
         <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12000,7 +11993,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -12029,10 +12022,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12061,7 +12054,7 @@
         <v>132</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>134</v>
@@ -12114,7 +12107,7 @@
         <v>137</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -12143,14 +12136,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12172,10 +12165,10 @@
         <v>131</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>134</v>
@@ -12230,7 +12223,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
@@ -12259,14 +12252,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12288,16 +12281,16 @@
         <v>199</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>74</v>
@@ -12307,7 +12300,7 @@
         <v>74</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>74</v>
@@ -12325,7 +12318,7 @@
         <v>203</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>74</v>
@@ -12346,7 +12339,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>83</v>
@@ -12364,7 +12357,7 @@
         <v>74</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>74</v>
@@ -12375,10 +12368,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12404,10 +12397,10 @@
         <v>146</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12458,7 +12451,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>83</v>
@@ -12476,7 +12469,7 @@
         <v>74</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>74</v>
@@ -12487,10 +12480,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12513,17 +12506,17 @@
         <v>74</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>74</v>
@@ -12560,10 +12553,10 @@
         <v>74</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>74</v>
@@ -12572,7 +12565,7 @@
         <v>137</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -12590,7 +12583,7 @@
         <v>74</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>74</v>
@@ -12601,10 +12594,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12627,13 +12620,13 @@
         <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12684,7 +12677,7 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
@@ -12713,10 +12706,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12745,7 +12738,7 @@
         <v>132</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>134</v>
@@ -12798,7 +12791,7 @@
         <v>137</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
@@ -12827,14 +12820,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12856,10 +12849,10 @@
         <v>131</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>134</v>
@@ -12914,7 +12907,7 @@
         <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>75</v>
@@ -12943,14 +12936,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12972,16 +12965,16 @@
         <v>199</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>210</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>74</v>
@@ -13009,7 +13002,7 @@
         <v>203</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>74</v>
@@ -13030,7 +13023,7 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
@@ -13048,7 +13041,7 @@
         <v>74</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>74</v>
@@ -13059,10 +13052,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13085,17 +13078,17 @@
         <v>74</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>74</v>
@@ -13144,7 +13137,7 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
@@ -13162,7 +13155,7 @@
         <v>74</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>74</v>
@@ -13173,13 +13166,13 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>74</v>
@@ -13201,17 +13194,17 @@
         <v>74</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>74</v>
@@ -13260,7 +13253,7 @@
         <v>74</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
@@ -13278,7 +13271,7 @@
         <v>74</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>74</v>
@@ -13289,10 +13282,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13315,13 +13308,13 @@
         <v>74</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13372,7 +13365,7 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
@@ -13401,10 +13394,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13433,7 +13426,7 @@
         <v>132</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>134</v>
@@ -13486,7 +13479,7 @@
         <v>137</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
@@ -13515,14 +13508,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13544,10 +13537,10 @@
         <v>131</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>134</v>
@@ -13602,7 +13595,7 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
@@ -13631,14 +13624,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -13660,16 +13653,16 @@
         <v>199</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>210</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>74</v>
@@ -13679,7 +13672,7 @@
         <v>74</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>74</v>
@@ -13697,7 +13690,7 @@
         <v>203</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>74</v>
@@ -13718,7 +13711,7 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>83</v>
@@ -13736,7 +13729,7 @@
         <v>74</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>74</v>
@@ -13747,10 +13740,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13773,17 +13766,17 @@
         <v>74</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>74</v>
@@ -13832,7 +13825,7 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>83</v>
@@ -13850,7 +13843,7 @@
         <v>74</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>74</v>
@@ -13861,13 +13854,13 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C104" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>74</v>
@@ -13889,17 +13882,17 @@
         <v>74</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>74</v>
@@ -13948,7 +13941,7 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -13966,7 +13959,7 @@
         <v>74</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>74</v>
@@ -13977,10 +13970,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14003,13 +13996,13 @@
         <v>74</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14060,7 +14053,7 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
@@ -14089,10 +14082,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14121,7 +14114,7 @@
         <v>132</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>134</v>
@@ -14174,7 +14167,7 @@
         <v>137</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -14203,14 +14196,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14232,10 +14225,10 @@
         <v>131</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>134</v>
@@ -14290,7 +14283,7 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>75</v>
@@ -14319,14 +14312,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14348,16 +14341,16 @@
         <v>199</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>210</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>74</v>
@@ -14367,7 +14360,7 @@
         <v>74</v>
       </c>
       <c r="S108" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>74</v>
@@ -14385,7 +14378,7 @@
         <v>203</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>74</v>
@@ -14406,7 +14399,7 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>83</v>
@@ -14424,7 +14417,7 @@
         <v>74</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>74</v>
@@ -14435,10 +14428,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14464,14 +14457,14 @@
         <v>146</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>74</v>
@@ -14520,7 +14513,7 @@
         <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>83</v>
@@ -14538,7 +14531,7 @@
         <v>74</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>74</v>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:32:06+00:00</t>
+    <t>2023-04-12T16:09:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:09:30+00:00</t>
+    <t>2023-04-19T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T09:29:32+00:00</t>
+    <t>2023-04-27T07:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T07:56:45+00:00</t>
+    <t>2023-04-28T06:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:37:34+00:00</t>
+    <t>2023-04-28T06:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-task.xlsx
+++ b/ig/main/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:38:38+00:00</t>
+    <t>2023-05-10T10:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
